--- a/TestData/Selenium.xlsx
+++ b/TestData/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANIKANDAN K\git\GoogleTranslator\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C3EA2-C5E0-43B1-8EEB-BE8EBADE807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B5919-6639-4752-A1CF-7E79F5673E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,6 +469,8 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -480,6 +482,8 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -491,6 +495,8 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -502,6 +508,8 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -513,6 +521,8 @@
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
